--- a/results/Preliminaries-Cyprus.xlsx
+++ b/results/Preliminaries-Cyprus.xlsx
@@ -45,40 +45,40 @@
     <t>2016</t>
   </si>
   <si>
-    <t>ADI</t>
-  </si>
-  <si>
-    <t>AKE</t>
-  </si>
-  <si>
-    <t>DIK</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>EDE</t>
-  </si>
-  <si>
-    <t>EDI</t>
-  </si>
-  <si>
-    <t>KOP</t>
-  </si>
-  <si>
-    <t>NEO</t>
-  </si>
-  <si>
-    <t>EVR</t>
-  </si>
-  <si>
-    <t>ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ka </t>
-  </si>
-  <si>
-    <t>syp</t>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
   </si>
   <si>
     <t>Key</t>
@@ -114,1531 +114,1531 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>ADI+AKE</t>
-  </si>
-  <si>
-    <t>ADI+DIK</t>
-  </si>
-  <si>
-    <t>ADI+DIS</t>
-  </si>
-  <si>
-    <t>ADI+EDE</t>
-  </si>
-  <si>
-    <t>ADI+EDI</t>
-  </si>
-  <si>
-    <t>ADI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK</t>
-  </si>
-  <si>
-    <t>AKE+DIS</t>
-  </si>
-  <si>
-    <t>AKE+EDE</t>
-  </si>
-  <si>
-    <t>AKE+EDI</t>
-  </si>
-  <si>
-    <t>AKE+KOP</t>
-  </si>
-  <si>
-    <t>AKE+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS</t>
-  </si>
-  <si>
-    <t>DIK+EDE</t>
-  </si>
-  <si>
-    <t>DIK+EDI</t>
-  </si>
-  <si>
-    <t>DIK+KOP</t>
-  </si>
-  <si>
-    <t>DIK+NEO</t>
-  </si>
-  <si>
-    <t>DIS+EDE</t>
-  </si>
-  <si>
-    <t>DIS+EDI</t>
-  </si>
-  <si>
-    <t>DIS+KOP</t>
-  </si>
-  <si>
-    <t>DIS+NEO</t>
-  </si>
-  <si>
-    <t>EDE+EDI</t>
-  </si>
-  <si>
-    <t>EDE+KOP</t>
-  </si>
-  <si>
-    <t>EDE+NEO</t>
-  </si>
-  <si>
-    <t>EDI+KOP</t>
-  </si>
-  <si>
-    <t>EDI+NEO</t>
-  </si>
-  <si>
-    <t>KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDI</t>
-  </si>
-  <si>
-    <t>ADI+DIK+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDI</t>
-  </si>
-  <si>
-    <t>ADI+DIS+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIS+NEO</t>
-  </si>
-  <si>
-    <t>ADI+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDI</t>
-  </si>
-  <si>
-    <t>AKE+DIK+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDI</t>
-  </si>
-  <si>
-    <t>AKE+DIS+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIS+NEO</t>
-  </si>
-  <si>
-    <t>AKE+EDE+EDI</t>
-  </si>
-  <si>
-    <t>AKE+EDE+KOP</t>
-  </si>
-  <si>
-    <t>AKE+EDE+NEO</t>
-  </si>
-  <si>
-    <t>AKE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDI</t>
-  </si>
-  <si>
-    <t>DIK+DIS+KOP</t>
-  </si>
-  <si>
-    <t>DIK+DIS+NEO</t>
-  </si>
-  <si>
-    <t>DIK+EDE+EDI</t>
-  </si>
-  <si>
-    <t>DIK+EDE+KOP</t>
-  </si>
-  <si>
-    <t>DIK+EDE+NEO</t>
-  </si>
-  <si>
-    <t>DIK+EDI+KOP</t>
-  </si>
-  <si>
-    <t>DIK+EDI+NEO</t>
-  </si>
-  <si>
-    <t>DIK+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDI</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDI</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+EDI</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>DIK+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>DIK+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE+EDI</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE+EDI+KOP</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE+EDI+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+DIK+DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>ADI+AKE+DIK+DIS+EDE+EDI+KOP+NEO</t>
-  </si>
-  <si>
-    <t>AKE+EVR</t>
-  </si>
-  <si>
-    <t>DIK+EVR</t>
-  </si>
-  <si>
-    <t>DIS+EVR</t>
-  </si>
-  <si>
-    <t>EDE+EVR</t>
-  </si>
-  <si>
-    <t>EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EVR</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EVR</t>
-  </si>
-  <si>
-    <t>AKE+EDE+EVR</t>
-  </si>
-  <si>
-    <t>AKE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EVR</t>
-  </si>
-  <si>
-    <t>DIK+EDE+EVR</t>
-  </si>
-  <si>
-    <t>DIK+EVR+KOP</t>
-  </si>
-  <si>
-    <t>DIS+EDE+EVR</t>
-  </si>
-  <si>
-    <t>DIS+EVR+KOP</t>
-  </si>
-  <si>
-    <t>EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EVR</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+EVR</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+EVR</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+EVR</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EVR+KOP</t>
-  </si>
-  <si>
-    <t>DIK+EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>DIS+EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+EVR</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+EVR+KOP</t>
-  </si>
-  <si>
-    <t>AKE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+ka </t>
-  </si>
-  <si>
-    <t>AKE+syp</t>
-  </si>
-  <si>
-    <t>DIK+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+ka </t>
-  </si>
-  <si>
-    <t>DIK+syp</t>
-  </si>
-  <si>
-    <t>DIS+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+ka </t>
-  </si>
-  <si>
-    <t>DIS+syp</t>
-  </si>
-  <si>
-    <t>EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDE+ka </t>
-  </si>
-  <si>
-    <t>EDE+syp</t>
-  </si>
-  <si>
-    <t>ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELA+ka </t>
-  </si>
-  <si>
-    <t>ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOP+ka </t>
-  </si>
-  <si>
-    <t>KOP+syp</t>
-  </si>
-  <si>
-    <t>ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+syp</t>
-  </si>
-  <si>
-    <t>AKE+EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+EDE+ka </t>
-  </si>
-  <si>
-    <t>AKE+EDE+syp</t>
-  </si>
-  <si>
-    <t>AKE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+syp</t>
-  </si>
-  <si>
-    <t>DIK+EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+EDE+ka </t>
-  </si>
-  <si>
-    <t>DIK+EDE+syp</t>
-  </si>
-  <si>
-    <t>DIK+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+ELA+ka </t>
-  </si>
-  <si>
-    <t>DIK+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+ka +syp</t>
-  </si>
-  <si>
-    <t>DIS+EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+EDE+ka </t>
-  </si>
-  <si>
-    <t>DIS+EDE+syp</t>
-  </si>
-  <si>
-    <t>DIS+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+ELA+ka </t>
-  </si>
-  <si>
-    <t>DIS+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIS+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIS+ka +syp</t>
-  </si>
-  <si>
-    <t>EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+EDE+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+EDE+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+EDE+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+ELA+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>DIK+EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIS+EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>DIS+EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIS+EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIS+EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIS+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIS+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>DIS+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+EDE+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS+EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIS+EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIS+EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>DIS+EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIS+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+ELA+KOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+EDE+ELA+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+ELA+syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+EDE+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIS+EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+DIS+EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIS+EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKE+DIK+DIS+EDE+ELA+KOP+ka </t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+ELA+KOP+syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+ELA+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIS+EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>DIK+DIS+EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>AKE+DIK+DIS+EDE+ELA+KOP+ka +syp</t>
-  </si>
-  <si>
-    <t>('DIK+DIS', 'ADI+AKE+EDE+EDI+KOP+NEO')</t>
-  </si>
-  <si>
-    <t>('ADI+AKE+EDE+EDI+KOP+NEO', 'DIK+DIS')</t>
-  </si>
-  <si>
-    <t>('AKE+DIK', 'DIS+EDE+EVR+KOP')</t>
-  </si>
-  <si>
-    <t>('DIS+EDE+EVR+KOP', 'AKE+DIK')</t>
-  </si>
-  <si>
-    <t>('AKE+DIK+EDE', 'DIS+ELA+KOP+ka +syp')</t>
-  </si>
-  <si>
-    <t>('AKE+DIK+ka ', 'DIS+EDE+ELA+KOP+syp')</t>
-  </si>
-  <si>
-    <t>('AKE+DIK+syp', 'DIS+EDE+ELA+KOP+ka ')</t>
-  </si>
-  <si>
-    <t>('DIS+EDE+ELA+KOP+ka ', 'AKE+DIK+syp')</t>
-  </si>
-  <si>
-    <t>('DIS+EDE+ELA+KOP+syp', 'AKE+DIK+ka ')</t>
-  </si>
-  <si>
-    <t>('DIS+ELA+KOP+ka +syp', 'AKE+DIK+EDE')</t>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
+  </si>
+  <si>
+    <t>('DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)', 'ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)')</t>
+  </si>
+  <si>
+    <t>('ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)+AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EDI - United Democrats  (Enomenoi Demokrates, EDI)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+NEO - New Horizons (Neoi Orizontes, NEO)', 'DIKO - Democratic Party  (Demokratiko Komma, DIKO)+DISY - Democratic Rally  (Democratiko Synagermo, DISY)')</t>
+  </si>
+  <si>
+    <t>('AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)', 'DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)')</t>
+  </si>
+  <si>
+    <t>('DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+EVROKO - European Party (Evropaiko Komma, EVROKO)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)', 'AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)')</t>
+  </si>
+  <si>
+    <t>('AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )', 'DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance\xa0 (Symmachía Politón, sypol)')</t>
+  </si>
+  <si>
+    <t>('AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ka - Solidarity Movement (Kinima Allilengyi, ka)', 'DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance\xa0 (Symmachía Politón, sypol)')</t>
+  </si>
+  <si>
+    <t>('AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+sypol - Citizen’s Alliance\xa0 (Symmachía Politón, sypol)', 'DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)')</t>
+  </si>
+  <si>
+    <t>('DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)', 'AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+sypol - Citizen’s Alliance\xa0 (Symmachía Politón, sypol)')</t>
+  </si>
+  <si>
+    <t>('DISY - Democratic Rally  (Democratiko Synagermo, DISY)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+sypol - Citizen’s Alliance\xa0 (Symmachía Politón, sypol)', 'AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+ka - Solidarity Movement (Kinima Allilengyi, ka)')</t>
+  </si>
+  <si>
+    <t>('DISY - Democratic Rally  (Democratiko Synagermo, DISY)+ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)+KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)+ka - Solidarity Movement (Kinima Allilengyi, ka)+sypol - Citizen’s Alliance\xa0 (Symmachía Politón, sypol)', 'AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)+DIKO - Democratic Party  (Demokratiko Komma, DIKO)+EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )')</t>
   </si>
 </sst>
 </file>
